--- a/02_test4review/forReview_Cabin2022HoBo.xlsx
+++ b/02_test4review/forReview_Cabin2022HoBo.xlsx
@@ -2340,7 +2340,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2022-08-06 17:00:02</t>
+          <t>2022-08-07 17:00:01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -12810,7 +12810,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>44780</v>
+        <v>44781</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         </is>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -12844,7 +12844,7 @@
         </is>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
